--- a/medicine/Premiers secours et secourisme/Pilote_Trémintin_II_(SNS_088)/Pilote_Trémintin_II_(SNS_088).xlsx
+++ b/medicine/Premiers secours et secourisme/Pilote_Trémintin_II_(SNS_088)/Pilote_Trémintin_II_(SNS_088).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pilote_Tr%C3%A9mintin_II_(SNS_088)</t>
+          <t>Pilote_Trémintin_II_(SNS_088)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Pilote Trémintin II (SNS 088) est un bateau tous temps de la station de l'Île-de-Batz de la Société nationale de sauvetage en mer (SNSM). Il est en service depuis 1997 et a été rénové et modernisé en 2012.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pilote_Tr%C3%A9mintin_II_(SNS_088)</t>
+          <t>Pilote_Trémintin_II_(SNS_088)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Pilote Trémintin II est construit au chantier Sibiril, à Carantec, en 1997[1], et mis en service durant cette même année, en remplacement du Pilote Trémintin, en service depuis 1958, comme lui son nom est un hommage au marin de l'île Yves Trémintin.
-En 2012, il entre en grand carénage pour deux mois à Saint-Malo dans le Centre d’Entretien et de Réparation de l’Ouest (CERO) de la SNSM. Pour un coût de 280 000 fr, il est rénové et modernisé pour un nouveau service pendant quinze ans, le financement est assuré à parts égales (25%) par quatre structures : la SNSM nationale, le Conseil régional de Bretagne, le conseil général du Finistère et la station de l'Île de Batz. Après une semaine d'essais sous la responsabilité de Gilles-Jean Cerkievyk, technicien de la SNSM, il retrouve en juillet son patron, son équipage. Pendant l'absence du canot les installations de mise à l'eau, cale et chariot, ainsi que l'abri ont été rénovés et repeints[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pilote Trémintin II est construit au chantier Sibiril, à Carantec, en 1997, et mis en service durant cette même année, en remplacement du Pilote Trémintin, en service depuis 1958, comme lui son nom est un hommage au marin de l'île Yves Trémintin.
+En 2012, il entre en grand carénage pour deux mois à Saint-Malo dans le Centre d’Entretien et de Réparation de l’Ouest (CERO) de la SNSM. Pour un coût de 280 000 fr, il est rénové et modernisé pour un nouveau service pendant quinze ans, le financement est assuré à parts égales (25%) par quatre structures : la SNSM nationale, le Conseil régional de Bretagne, le conseil général du Finistère et la station de l'Île de Batz. Après une semaine d'essais sous la responsabilité de Gilles-Jean Cerkievyk, technicien de la SNSM, il retrouve en juillet son patron, son équipage. Pendant l'absence du canot les installations de mise à l'eau, cale et chariot, ainsi que l'abri ont été rénovés et repeints.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pilote_Tr%C3%A9mintin_II_(SNS_088)</t>
+          <t>Pilote_Trémintin_II_(SNS_088)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait partie de la série des canot tous temps, de la SNSM, caractéristiques et équipement[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait partie de la série des canot tous temps, de la SNSM, caractéristiques et équipement :
 Longueur hors-tout de 15,52 m,
 Longueur de flottaison : 14,08 m,
 Maître-bau : 4,39 m,
